--- a/TestData/OneForAll/moveHosts.xlsx
+++ b/TestData/OneForAll/moveHosts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\OneForAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EAFD24-FDD7-417E-86D5-CFC0F087D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ECCB89-3457-4B22-A010-08ABCBBCD961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Source Wavename</t>
   </si>
@@ -34,16 +34,40 @@
   </si>
   <si>
     <t>Host Names</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>psp-MyLinFirstFlow-src2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,8 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,28 +377,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
